--- a/content/post/2021-09-25-konsum-und-investieren/my_apple_products.xlsx
+++ b/content/post/2021-09-25-konsum-und-investieren/my_apple_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/blog/jantau/content/post/2021-09-25-konsum-und-investieren/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1844D92-3472-3046-9771-5F15FCDA47CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278840C8-A147-AD46-95D3-93D6B055EC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5110EC2E-6179-8343-BDC2-7E33478C5128}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5110EC2E-6179-8343-BDC2-7E33478C5128}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>2006-04-01</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Apple TV</t>
   </si>
   <si>
-    <t>2020-09-01</t>
-  </si>
-  <si>
     <t>Homepod Mini</t>
   </si>
   <si>
@@ -108,7 +105,10 @@
     <t>iPod Touch</t>
   </si>
   <si>
-    <t>2021-03-01</t>
+    <t>price_usd</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
   </si>
 </sst>
 </file>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231F6BED-1189-9145-955C-F407134E19F4}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,40 +473,49 @@
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -516,10 +525,13 @@
       <c r="C4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -527,10 +539,13 @@
       <c r="C5">
         <v>650</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -538,8 +553,11 @@
       <c r="C6">
         <v>350</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -549,8 +567,11 @@
       <c r="C7">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -560,8 +581,11 @@
       <c r="C8">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -571,49 +595,50 @@
       <c r="C9">
         <v>1400</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
       </c>
       <c r="C11">
         <v>950</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
+      <c r="D12">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
